--- a/entrada.xlsx
+++ b/entrada.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://insper-my.sharepoint.com/personal/caiofrs_insper_edu_br/Documents/Insper/2_TERMOSOLIDOS/APS/2021/APS 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riywa\Desktop\APS4_mecsol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_B83576887843B5F308FB41B3B0A882DC2AEE8E3C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C48F6A4B-2E11-40DF-BD96-CB6BDBFD4F71}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183566A4-BB43-4B29-B723-DB9CC594B63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nos" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -508,16 +508,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="11.7109375" customWidth="1"/>
+    <col min="1" max="4" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.15" customHeight="1">
+    <row r="1" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -529,7 +529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -542,7 +542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -552,7 +552,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>0.3</v>
       </c>
@@ -562,7 +562,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
@@ -579,12 +579,12 @@
       <selection activeCell="A4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="11.7109375" customWidth="1"/>
+    <col min="1" max="7" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.15" customHeight="1">
+    <row r="1" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -602,7 +602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -621,7 +621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -638,7 +638,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -666,12 +666,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="11.7109375" customWidth="1"/>
+    <col min="1" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.15" customHeight="1">
+    <row r="1" spans="1:5" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -686,7 +686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>3</v>
       </c>
@@ -702,7 +702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -715,140 +715,140 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -864,16 +864,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="11.7109375" customWidth="1"/>
+    <col min="1" max="4" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.15" customHeight="1">
+    <row r="1" spans="1:4" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -885,7 +885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -898,7 +898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -908,7 +908,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -918,113 +918,113 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
